--- a/BackTest/2020-01-16 BackTest DAD.xlsx
+++ b/BackTest/2020-01-16 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-29840.35289395599</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-29830.67289395599</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-29830.67289395599</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-62608.69629395599</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-62436.69629395599</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-62936.69629395599</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-71913.32109395599</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-63225.271493956</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-63207.271493956</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-63207.271493956</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-63204.271493956</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-63204.271493956</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-67851.668293956</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-67851.668293956</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-67851.668293956</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-67848.668293956</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-66007.46599395599</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-63698.886093956</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-63698.886093956</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-61424.484893956</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-62540.484893956</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-62522.484893956</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-69377.694293956</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-71200.23149395602</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-70281.65859395602</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>774.9680060439714</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>777.3680060439714</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5734.666493956029</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5794.218293956029</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-7782.466493956029</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-7911.34359395603</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8292.31189395603</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-8256.837693956029</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9133.903593956029</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-31677.95799395603</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-33984.51119395603</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-33118.18619395603</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-33022.16299395603</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-33022.16299395603</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-29098.02229395603</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-29102.41509395603</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-29099.41509395603</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-29314.66889395603</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-28201.66889395603</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-28201.66889395603</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-944.6766939560293</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-36076.77439395603</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-71212.67979395603</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-71191.78999395603</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-106474.088193956</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-111922.229093956</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-83758.63189395603</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-83040.26099395604</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-81780.80279395604</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-81780.80279395604</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-80722.57529395605</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-74919.19109395605</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-81714.93289395605</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-79803.24499395605</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-84229.50779395604</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-84223.73639395605</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-85283.02739395604</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-120586.094293956</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-122586.094293956</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-128117.748393956</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-162180.651393956</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-172986.721893956</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-187898.7484939561</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-181760.103554652</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-181757.103554652</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-191919.578954652</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-212580.978254652</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-212577.978254652</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-212577.978254652</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-220674.803054652</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-220674.803054652</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-219674.803054652</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-189348.897354652</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-190284.396354652</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-205626.491354652</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-205550.041354652</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-207797.582254652</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-205902.345754652</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-206002.345754652</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-205046.525754652</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-202930.661854652</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-202880.833154652</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-204183.026354652</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-227127.134454652</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-227029.085754652</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -6490,11 +6490,17 @@
         <v>-574038.9354546521</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>177.5</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6533,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6570,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6607,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6644,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6681,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +6718,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +6755,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6792,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +6829,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +6866,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6899,17 @@
         <v>-556986.053154652</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>184.9</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6938,17 @@
         <v>-559619.9563546519</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>187</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6977,17 @@
         <v>-552537.7527546519</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>183</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7020,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7053,17 @@
         <v>-557405.3527546519</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>184</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7092,17 @@
         <v>-561648.461354652</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>184.1</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7131,17 @@
         <v>-561648.461354652</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>183.3</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7174,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7207,17 @@
         <v>-562632.4905546519</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>183.9</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7246,17 @@
         <v>-597771.4611546519</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>182.1</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7285,17 @@
         <v>-597771.4611546519</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>180</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7328,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7365,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7402,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7439,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7476,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7513,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7546,17 @@
         <v>-590938.7126546517</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>185.1</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7585,17 @@
         <v>-590938.7126546517</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>187</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7628,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7665,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7702,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7739,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7776,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,15 +7809,13 @@
         <v>-584564.8625187777</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>193.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
@@ -7869,11 +8031,9 @@
         <v>-589364.1101187776</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -7908,11 +8068,9 @@
         <v>-589164.1101187776</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>186.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -7947,11 +8105,9 @@
         <v>-589215.8111187776</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8097,7 +8253,7 @@
         <v>-582225.8169187777</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>190</v>
@@ -8136,7 +8292,7 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>190</v>
@@ -8175,9 +8331,11 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>190.6</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8249,9 +8407,11 @@
         <v>-582718.5777187777</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>190.6</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8286,9 +8446,11 @@
         <v>-585784.1223187777</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>190</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -8360,7 +8522,7 @@
         <v>-587902.3872187777</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>188.4</v>
@@ -8399,7 +8561,7 @@
         <v>-587658.4724187776</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>188.4</v>
@@ -8438,7 +8600,7 @@
         <v>-573372.3221187777</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>190</v>
@@ -8477,7 +8639,7 @@
         <v>-532119.9813344147</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>191</v>
@@ -8627,11 +8789,9 @@
         <v>-533247.5213344147</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>194.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8740,7 +8900,7 @@
         <v>-534663.7693344147</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>195.2</v>
@@ -8779,7 +8939,7 @@
         <v>-534000.7693344147</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>194</v>
@@ -8818,7 +8978,7 @@
         <v>-533718.1793344148</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>195</v>
@@ -8857,7 +9017,7 @@
         <v>-532681.4325301108</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>195.2</v>
@@ -8896,7 +9056,7 @@
         <v>-533309.4090301108</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>198</v>
@@ -8935,9 +9095,11 @@
         <v>-530097.6628301108</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>196</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -8972,9 +9134,11 @@
         <v>-530097.6628301108</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>197.9</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9120,11 +9284,9 @@
         <v>-554082.6701972669</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>191.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9159,9 +9321,11 @@
         <v>-556252.3419972669</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>197.8</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9196,9 +9360,11 @@
         <v>-565040.6262972669</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>197.7</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9233,9 +9399,11 @@
         <v>-565037.6262972669</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>190</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9270,9 +9438,11 @@
         <v>-565239.8425972669</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>195.9</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9307,9 +9477,11 @@
         <v>-566584.6502972669</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>193.8</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9344,9 +9516,11 @@
         <v>-566581.6502972669</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>191</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9381,9 +9555,11 @@
         <v>-566974.3190972669</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>194.5</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9418,9 +9594,11 @@
         <v>-566971.3190972669</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>192.1</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9455,9 +9633,11 @@
         <v>-569099.8462972669</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>194.7</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9492,9 +9672,11 @@
         <v>-569099.8462972669</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>192.1</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9529,9 +9711,11 @@
         <v>-572513.9796972669</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>192.1</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9566,9 +9750,11 @@
         <v>-572510.9796972669</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>191.2</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9603,9 +9789,11 @@
         <v>-566591.075697267</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>192.1</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -9640,9 +9828,11 @@
         <v>-567052.423397267</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>195</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -9677,9 +9867,11 @@
         <v>-566173.509915542</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>192.1</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -9714,9 +9906,11 @@
         <v>-566179.509915542</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>197</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -9751,9 +9945,11 @@
         <v>-566173.199315542</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>192.4</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -9788,9 +9984,11 @@
         <v>-566173.199315542</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>194</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -9825,9 +10023,11 @@
         <v>-560013.198210271</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>194</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -9862,7 +10062,7 @@
         <v>-561513.198210271</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>197.3</v>
@@ -9901,7 +10101,7 @@
         <v>-561813.198210271</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>197.2</v>
@@ -9940,7 +10140,7 @@
         <v>-560800.410210271</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>194</v>
@@ -9979,7 +10179,7 @@
         <v>-560700.410210271</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>194.1</v>
@@ -10018,9 +10218,11 @@
         <v>-561809.580424703</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>196.6</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10055,9 +10257,11 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>194</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10092,9 +10296,11 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>192</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10129,9 +10335,11 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>192</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10166,9 +10374,11 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>192</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10203,9 +10413,11 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>192</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10240,9 +10452,11 @@
         <v>-563452.0573814689</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>192</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10277,9 +10491,11 @@
         <v>-563970.790981469</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>192.9</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10314,9 +10530,11 @@
         <v>-563970.790981469</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>192.7</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10351,9 +10569,11 @@
         <v>-563802.810981469</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>192.7</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10425,9 +10645,11 @@
         <v>-566452.810981469</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>195.3</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10462,9 +10684,11 @@
         <v>-566452.810981469</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>192</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10499,9 +10723,11 @@
         <v>-569488.957281469</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>192</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10536,9 +10762,11 @@
         <v>-569485.957281469</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>191.4</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10573,9 +10801,11 @@
         <v>-569485.957281469</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>194</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10610,7 +10840,7 @@
         <v>-569485.957281469</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>194</v>
@@ -10649,7 +10879,7 @@
         <v>-580081.3160814691</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>194</v>
@@ -10688,7 +10918,7 @@
         <v>-580713.739081469</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>193.9</v>
@@ -10727,9 +10957,11 @@
         <v>-580713.739081469</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>192</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10764,7 +10996,7 @@
         <v>-580710.739081469</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>192</v>
@@ -10803,9 +11035,11 @@
         <v>-583343.332481469</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>193</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10840,9 +11074,11 @@
         <v>-583343.332481469</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>192</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10877,9 +11113,11 @@
         <v>-583340.332481469</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>192</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -10914,9 +11152,11 @@
         <v>-567850.888881469</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>193</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -10951,9 +11191,11 @@
         <v>-570847.463881469</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>197.3</v>
+      </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -10988,9 +11230,11 @@
         <v>-570382.447081469</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>193.9</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11025,9 +11269,11 @@
         <v>-570582.447081469</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>195</v>
+      </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11062,9 +11308,11 @@
         <v>-570326.941481469</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>194.2</v>
+      </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11099,9 +11347,11 @@
         <v>-570122.154181469</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>198.8</v>
+      </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11173,11 +11423,9 @@
         <v>-569618.968281469</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>199.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -11212,7 +11460,7 @@
         <v>-533153.5599814689</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>202.5</v>
@@ -11288,16 +11536,18 @@
         <v>-535499.5403516929</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L317" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
       <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
@@ -11323,11 +11573,15 @@
         <v>-535524.7549516929</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11356,15 +11610,15 @@
         <v>-535520.5751516928</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>201.1</v>
-      </c>
-      <c r="J319" t="n">
-        <v>201.1</v>
-      </c>
-      <c r="K319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11396,12 +11650,10 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>201.1</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L320" t="n">
@@ -11435,12 +11687,10 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>201.1</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L321" t="n">
@@ -11471,11 +11721,15 @@
         <v>-508619.3878516929</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11504,11 +11758,15 @@
         <v>-508619.3878516929</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11537,11 +11795,15 @@
         <v>-499200.1385516928</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11570,11 +11832,15 @@
         <v>-500641.0084516928</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11603,11 +11869,15 @@
         <v>-501636.5546516928</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11640,7 +11910,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11673,7 +11947,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11706,7 +11984,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11739,7 +12021,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11772,7 +12058,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11805,7 +12095,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11838,7 +12132,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11871,7 +12169,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11904,7 +12206,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11933,11 +12239,17 @@
         <v>-517328.3566516928</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>198.8</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11970,7 +12282,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11999,11 +12315,17 @@
         <v>-520721.7398516928</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>198.8</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12032,11 +12354,17 @@
         <v>-520932.8502516928</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>198.7</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12065,11 +12393,17 @@
         <v>-520248.7498516928</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>198</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12102,7 +12436,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12135,7 +12473,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12164,11 +12506,17 @@
         <v>-520528.5862516928</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>194</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12197,11 +12545,17 @@
         <v>-521760.7800516929</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>197.9</v>
+      </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12230,11 +12584,17 @@
         <v>-521656.1030516928</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>190.3</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12263,11 +12623,17 @@
         <v>-523119.3080516928</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>196.7</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12300,7 +12666,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12333,7 +12703,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12366,7 +12740,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12399,7 +12777,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12432,7 +12814,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12465,7 +12851,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12498,7 +12888,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12527,11 +12921,17 @@
         <v>-530187.9526516929</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>193</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12564,7 +12964,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12597,7 +13001,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12626,15 +13034,13 @@
         <v>-534257.4273516929</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L357" t="n">
@@ -12665,9 +13071,11 @@
         <v>-535692.586651693</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>193</v>
+      </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -12702,9 +13110,11 @@
         <v>-535692.586651693</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>191.3</v>
+      </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -12739,9 +13149,11 @@
         <v>-535692.586651693</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>191.3</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -12776,9 +13188,11 @@
         <v>-535692.586651693</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>191.3</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12813,9 +13227,11 @@
         <v>-528974.632951693</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>191.3</v>
+      </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -12850,9 +13266,11 @@
         <v>-512882.817051693</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>192.1</v>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12887,9 +13305,11 @@
         <v>-543395.359651693</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>192.9</v>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13220,9 +13640,11 @@
         <v>-574363.475042218</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>192</v>
+      </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13257,9 +13679,11 @@
         <v>-574070.0585422179</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>191</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -13294,9 +13718,11 @@
         <v>-571462.1659422179</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>193.9</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13331,9 +13757,11 @@
         <v>-571462.1659422179</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>194.4</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13368,9 +13796,11 @@
         <v>-571462.1659422179</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>194.4</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13590,9 +14020,11 @@
         <v>-568537.1624422178</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>194.5</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13627,9 +14059,11 @@
         <v>-568537.1624422178</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>195</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13664,9 +14098,11 @@
         <v>-568814.4924422178</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>195</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13701,9 +14137,11 @@
         <v>-584652.3918422178</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>194.6</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13738,9 +14176,11 @@
         <v>-584649.3918422178</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>194.5</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13775,9 +14215,11 @@
         <v>-584649.3918422178</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>195</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13812,9 +14254,11 @@
         <v>-584649.3918422178</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>195</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13849,7 +14293,7 @@
         <v>-565032.4267473448</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>195</v>
@@ -13888,9 +14332,11 @@
         <v>-563083.0005385518</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>195.2</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13962,9 +14408,11 @@
         <v>-569826.7342385518</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>195.6</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13999,9 +14447,11 @@
         <v>-553230.5999473449</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>195</v>
+      </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -14147,11 +14597,9 @@
         <v>-562412.5401473448</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -14445,11 +14893,9 @@
         <v>-562785.4912473448</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>198.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14484,11 +14930,9 @@
         <v>-572900.3777473448</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>198.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14523,11 +14967,9 @@
         <v>-572900.3777473448</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14562,11 +15004,9 @@
         <v>-572900.3777473448</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14601,11 +15041,9 @@
         <v>-572900.3777473448</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14640,11 +15078,9 @@
         <v>-572900.3777473448</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14679,11 +15115,9 @@
         <v>-603015.7956473448</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14718,11 +15152,9 @@
         <v>-603012.7956473448</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>189.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14757,11 +15189,9 @@
         <v>-604332.7956473448</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14796,7 +15226,7 @@
         <v>-614905.5993473448</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>191.6</v>
@@ -14835,7 +15265,7 @@
         <v>-614905.5993473448</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>191</v>
@@ -14874,7 +15304,7 @@
         <v>-592316.0359473448</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>191</v>
@@ -14913,7 +15343,7 @@
         <v>-594442.5453473448</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>193</v>
@@ -14952,11 +15382,9 @@
         <v>-596651.8373473448</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>191.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14991,7 +15419,7 @@
         <v>-592198.3527473449</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>187</v>
@@ -15030,7 +15458,7 @@
         <v>-592198.3527473449</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>187.1</v>
@@ -15069,7 +15497,7 @@
         <v>-594347.8944473448</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>187.1</v>
@@ -15108,7 +15536,7 @@
         <v>-594344.8944473448</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>186</v>
@@ -15147,7 +15575,7 @@
         <v>-595068.6535473448</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>191.4</v>
@@ -15186,7 +15614,7 @@
         <v>-594949.9141473449</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>186.2</v>
@@ -15225,7 +15653,7 @@
         <v>-595710.5551473448</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>191.1</v>
@@ -15264,9 +15692,11 @@
         <v>-595564.2849473448</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>190.7</v>
+      </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -15301,7 +15731,7 @@
         <v>-594937.4481473448</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>190.8</v>
@@ -15340,7 +15770,7 @@
         <v>-594937.4481473448</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>191.2</v>
@@ -15379,7 +15809,7 @@
         <v>-594423.7021473447</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>191.2</v>
@@ -15418,7 +15848,7 @@
         <v>-594423.7021473447</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>191.7</v>
@@ -15457,9 +15887,11 @@
         <v>-594039.6984473447</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>191.7</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15494,9 +15926,11 @@
         <v>-567924.2242673048</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>193.7</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15864,11 +16298,9 @@
         <v>-556749.6944673047</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>196.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15903,7 +16335,7 @@
         <v>-556749.6944673047</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>195.5</v>
@@ -16016,9 +16448,11 @@
         <v>-559701.5789673048</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>195.1</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -16053,9 +16487,11 @@
         <v>-560860.8426673048</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>192</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -16090,9 +16526,11 @@
         <v>-557899.3443673048</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>191.7</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -16127,9 +16565,11 @@
         <v>-570216.4136673048</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>194</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -16164,9 +16604,11 @@
         <v>-570212.0192673048</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>191.7</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -16497,9 +16939,11 @@
         <v>-539048.305567305</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>196</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16534,9 +16978,11 @@
         <v>-539431.825967305</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>196</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16645,9 +17091,11 @@
         <v>-539596.395867305</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>194</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16682,11 +17130,9 @@
         <v>-539596.395867305</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16721,7 +17167,7 @@
         <v>-540086.137067305</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>194</v>
@@ -16760,7 +17206,7 @@
         <v>-540065.008201326</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>193.3</v>
@@ -16799,7 +17245,7 @@
         <v>-541118.844301326</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>194</v>
@@ -16838,7 +17284,7 @@
         <v>-545612.090601326</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>193.3</v>
@@ -16877,7 +17323,7 @@
         <v>-545612.090601326</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>191.3</v>
@@ -16916,7 +17362,7 @@
         <v>-545612.090601326</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>191.3</v>
@@ -16955,7 +17401,7 @@
         <v>-541631.976301326</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>191.3</v>
@@ -16994,7 +17440,7 @@
         <v>-541626.277901326</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>192</v>
@@ -17033,7 +17479,7 @@
         <v>-541042.480133857</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>193.3</v>
@@ -17072,7 +17518,7 @@
         <v>-541042.480133857</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>195.2</v>
@@ -17111,7 +17557,7 @@
         <v>-540967.550533857</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>195.2</v>
@@ -17150,7 +17596,7 @@
         <v>-552461.079633857</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>195.3</v>
@@ -17189,7 +17635,7 @@
         <v>-546329.523066388</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>195.2</v>
@@ -17228,7 +17674,7 @@
         <v>-547585.3480663879</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>196</v>
@@ -17267,7 +17713,7 @@
         <v>-550431.1747663879</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>193.1</v>
@@ -17306,7 +17752,7 @@
         <v>-551519.2613663879</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>192.3</v>
@@ -17345,7 +17791,7 @@
         <v>-551516.2613663879</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>192.1</v>
@@ -17384,9 +17830,11 @@
         <v>-551746.592566388</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>195.9</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -17421,9 +17869,11 @@
         <v>-551746.592566388</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>193</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -17458,9 +17908,11 @@
         <v>-547556.7476663879</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>193</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -17495,7 +17947,7 @@
         <v>-548123.3064663879</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>194.9</v>
@@ -17534,9 +17986,11 @@
         <v>-548123.3064663879</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>193.4</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -17571,9 +18025,11 @@
         <v>-548149.1864663879</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>193.4</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -17608,9 +18064,11 @@
         <v>-548146.1864663879</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>193.2</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -17645,7 +18103,7 @@
         <v>-545337.8545663879</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>193.4</v>
@@ -17684,7 +18142,7 @@
         <v>-545337.8545663879</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>193.5</v>
@@ -17723,7 +18181,7 @@
         <v>-545334.8545663879</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>193.5</v>
@@ -17762,7 +18220,7 @@
         <v>-545334.8545663879</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>194.8</v>
@@ -17801,7 +18259,7 @@
         <v>-544665.9680663879</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>194.8</v>
@@ -17840,7 +18298,7 @@
         <v>-543455.002078921</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>194.9</v>
@@ -17879,7 +18337,7 @@
         <v>-543455.002078921</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>195.5</v>
@@ -17918,7 +18376,7 @@
         <v>-543455.002078921</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>195.5</v>
@@ -17957,7 +18415,7 @@
         <v>-543455.002078921</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>195.5</v>
@@ -17996,7 +18454,7 @@
         <v>-543455.002078921</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>195.5</v>
@@ -18035,7 +18493,7 @@
         <v>-544972.8690789209</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>195.5</v>
@@ -18074,7 +18532,7 @@
         <v>-544868.4237789209</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>192.2</v>
@@ -18113,7 +18571,7 @@
         <v>-544931.3788789209</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>193</v>
@@ -18152,7 +18610,7 @@
         <v>-544990.7874789209</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>192.9</v>
@@ -18191,7 +18649,7 @@
         <v>-545067.9376789209</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>192.8</v>
@@ -18230,7 +18688,7 @@
         <v>-545028.6084789209</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>192.7</v>
@@ -18269,7 +18727,7 @@
         <v>-545028.6084789209</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>192.9</v>
@@ -18308,7 +18766,7 @@
         <v>-545010.7457789208</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>192.9</v>
@@ -18347,7 +18805,7 @@
         <v>-544904.9317789208</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>193</v>
@@ -18386,7 +18844,7 @@
         <v>-544602.2122789208</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>193.1</v>
@@ -18425,7 +18883,7 @@
         <v>-543682.3268789208</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>193.9</v>
@@ -18464,7 +18922,7 @@
         <v>-543236.0731789208</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>194.8</v>
@@ -18503,7 +18961,7 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>195.3</v>
@@ -18542,7 +19000,7 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>196.3</v>
@@ -18581,7 +19039,7 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>196.3</v>
@@ -18620,7 +19078,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>196.3</v>
@@ -18659,7 +19117,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>196.4</v>
@@ -18698,7 +19156,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>196.4</v>
@@ -18737,7 +19195,7 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>196.4</v>
@@ -18776,7 +19234,7 @@
         <v>-543001.6919789208</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>196.4</v>
@@ -18815,7 +19273,7 @@
         <v>-543001.6919789208</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>196.5</v>
@@ -18854,7 +19312,7 @@
         <v>-543022.0316789208</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>196.5</v>
@@ -18893,7 +19351,7 @@
         <v>-543022.0316789208</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>196.3</v>
@@ -18932,7 +19390,7 @@
         <v>-543110.1182789209</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>196.3</v>
@@ -18971,7 +19429,7 @@
         <v>-543107.1182789209</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>196</v>
@@ -19010,7 +19468,7 @@
         <v>-543107.1182789209</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>196.4</v>
@@ -19049,7 +19507,7 @@
         <v>-543123.9493789208</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>196.4</v>
@@ -19088,7 +19546,7 @@
         <v>-543866.2777789208</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>195.2</v>
@@ -19127,7 +19585,7 @@
         <v>-543863.2777789208</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>194.1</v>
@@ -19166,7 +19624,7 @@
         <v>-546090.2631789208</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>195.2</v>
@@ -19205,7 +19663,7 @@
         <v>-546087.2631789208</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>193</v>
@@ -19244,7 +19702,7 @@
         <v>-547297.5636789209</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>195.1</v>
@@ -19283,7 +19741,7 @@
         <v>-547294.5636789209</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>193.5</v>
@@ -19322,7 +19780,7 @@
         <v>-547294.5636789209</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>195.1</v>
@@ -19361,7 +19819,7 @@
         <v>-548507.5636789209</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>195.1</v>
@@ -19400,7 +19858,7 @@
         <v>-546333.4021673378</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>193.1</v>
@@ -19439,7 +19897,7 @@
         <v>-554366.4005673379</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>195.1</v>
@@ -19478,7 +19936,7 @@
         <v>-554366.4005673379</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>193</v>
@@ -19517,7 +19975,7 @@
         <v>-554363.4005673379</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>193</v>
@@ -19556,7 +20014,7 @@
         <v>-558729.5856673379</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>195.1</v>
@@ -19595,7 +20053,7 @@
         <v>-562504.1474673379</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>193</v>
@@ -19634,7 +20092,7 @@
         <v>-564616.3526673379</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>192.1</v>
@@ -19673,7 +20131,7 @@
         <v>-569098.2423673379</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>191.5</v>
@@ -19712,7 +20170,7 @@
         <v>-568717.6079673379</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>191.4</v>
@@ -19751,7 +20209,7 @@
         <v>-568717.6079673379</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>191.5</v>
@@ -19768,6 +20226,6 @@
       <c r="M544" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest DAD.xlsx
+++ b/BackTest/2020-01-16 BackTest DAD.xlsx
@@ -451,7 +451,7 @@
         <v>-7173.266393955987</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-29840.35289395599</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-29830.67289395599</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-29830.67289395599</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-62608.69629395599</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-63225.271493956</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-63207.271493956</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-61424.484893956</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-62540.484893956</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-46285.562593956</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-63830.787193956</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-63830.787193956</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-70601.94909395601</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-70599.54909395601</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-71200.23149395602</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-70281.65859395602</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-70281.65859395602</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-70218.09899395602</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-72633.26559395602</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-70471.82169395602</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-70471.82169395602</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>774.9680060439714</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>777.3680060439714</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5734.666493956029</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5794.218293956029</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-7782.466493956029</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-7780.066493956029</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-7911.34359395603</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8292.31189395603</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-8256.837693956029</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-8259.837693956029</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9133.903593956029</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-32400.67059395603</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-32118.03509395603</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-34034.51119395603</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-33984.51119395603</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-33984.51119395603</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-33118.18619395603</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-33025.16299395603</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-33022.16299395603</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-33022.16299395603</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-29098.02229395603</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-29102.41509395603</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-29099.41509395603</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-29314.66889395603</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-28201.66889395603</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-28201.66889395603</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-33555.46569395603</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-944.6766939560293</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3442.538693956029</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-74922.19109395605</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-74919.19109395605</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-81714.93289395605</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-79803.24499395605</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-84229.50779395604</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-84223.73639395605</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-85283.02739395604</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-87220.02739395604</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-111544.321593956</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-121651.850593956</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-120586.094293956</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-122586.094293956</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-128117.748393956</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-128117.748393956</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-162180.651393956</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-172986.721893956</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -8041,10 +8041,14 @@
         <v>-582225.8169187777</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>190</v>
+      </c>
+      <c r="J232" t="n">
+        <v>190</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
@@ -8074,11 +8078,19 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>190</v>
+      </c>
+      <c r="J233" t="n">
+        <v>190</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8119,19 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="J234" t="n">
+        <v>190</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,10 +8160,14 @@
         <v>-582046.5777187777</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="J235" t="n">
+        <v>190.6</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
@@ -8173,11 +8197,19 @@
         <v>-582718.5777187777</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="J236" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8238,19 @@
         <v>-585784.1223187777</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>190</v>
+      </c>
+      <c r="J237" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8279,19 @@
         <v>-587902.3872187777</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8320,19 @@
         <v>-587902.3872187777</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="J239" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8361,19 @@
         <v>-587658.4724187776</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="J240" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8402,19 @@
         <v>-573372.3221187777</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>190</v>
+      </c>
+      <c r="J241" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8443,19 @@
         <v>-532119.9813344147</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>191</v>
+      </c>
+      <c r="J242" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8484,17 @@
         <v>-532182.9813344147</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8523,17 @@
         <v>-533182.9813344147</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8562,17 @@
         <v>-533250.5213344147</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8601,17 @@
         <v>-533247.5213344147</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8640,17 @@
         <v>-533461.3580344147</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8679,17 @@
         <v>-533461.3580344147</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8721,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8757,17 @@
         <v>-534000.7693344147</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8796,17 @@
         <v>-533718.1793344148</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8835,17 @@
         <v>-532681.4325301108</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8874,17 @@
         <v>-533309.4090301108</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8913,17 @@
         <v>-530097.6628301108</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8952,17 @@
         <v>-530097.6628301108</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8991,17 @@
         <v>-532006.8147301108</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +9030,17 @@
         <v>-554357.7657301108</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9072,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9111,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9150,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9189,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9228,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9267,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9306,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9345,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9384,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9423,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9462,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9501,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9540,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +9579,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +9618,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +9657,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9696,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +9735,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +9774,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +9813,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +9852,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9888,17 @@
         <v>-561513.198210271</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9927,17 @@
         <v>-561813.198210271</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9966,17 @@
         <v>-560800.410210271</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10005,17 @@
         <v>-560700.410210271</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10044,17 @@
         <v>-561809.580424703</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10083,17 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10122,17 @@
         <v>-563467.5628247029</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10164,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +10203,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +10242,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10281,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10398,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10437,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +10554,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10593,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10632,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10671,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10710,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10749,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10788,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10827,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10866,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10905,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10944,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +11022,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +11061,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +11100,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +11139,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +11178,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +11217,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +11256,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +11295,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11331,17 @@
         <v>-532719.5403516929</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +11370,17 @@
         <v>-535499.5403516929</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +11409,17 @@
         <v>-535524.7549516929</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11448,17 @@
         <v>-535520.5751516928</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11487,17 @@
         <v>-511357.8659516929</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11526,17 @@
         <v>-512387.6999516928</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11565,17 @@
         <v>-508619.3878516929</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +11607,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +11646,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11113,8 +11685,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +11724,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11763,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11802,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11841,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +11880,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +11919,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +11958,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11997,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +12036,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +12075,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +12114,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +12153,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +12192,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +12228,17 @@
         <v>-520932.8502516928</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +12267,17 @@
         <v>-520248.7498516928</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +12306,17 @@
         <v>-522284.9228516928</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +12345,17 @@
         <v>-523787.9354516928</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +12384,17 @@
         <v>-520528.5862516928</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +12423,17 @@
         <v>-521760.7800516929</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +12462,17 @@
         <v>-521656.1030516928</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +12501,17 @@
         <v>-523119.3080516928</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +12540,17 @@
         <v>-523119.3080516928</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12579,17 @@
         <v>-523889.4756516928</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12618,17 @@
         <v>-523148.3926516928</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12657,17 @@
         <v>-523666.9924516929</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12696,17 @@
         <v>-523663.9924516929</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12735,17 @@
         <v>-528645.0876516929</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12774,17 @@
         <v>-530190.9526516929</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12813,17 @@
         <v>-530187.9526516929</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12852,17 @@
         <v>-530714.6900516929</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12891,17 @@
         <v>-530293.4408516929</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12930,17 @@
         <v>-534257.4273516929</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12969,17 @@
         <v>-535692.586651693</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +13011,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +13050,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +13089,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +13128,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +13167,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +13206,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +13245,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12466,8 +13284,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +13323,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +13362,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +13401,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +13440,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +13479,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,15 +13515,17 @@
         <v>-571627.698242218</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>193.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="K372" t="inlineStr"/>
+        <v>190.6</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,17 +13554,15 @@
         <v>-574363.475042218</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -12739,13 +13593,11 @@
         <v>-574070.0585422179</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12780,13 +13632,11 @@
         <v>-571462.1659422179</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>193.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12821,13 +13671,11 @@
         <v>-571462.1659422179</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>194.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -12866,7 +13714,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -12905,7 +13753,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -12944,7 +13792,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -12983,7 +13831,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13022,7 +13870,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13061,7 +13909,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13100,7 +13948,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13139,7 +13987,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13178,7 +14026,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13217,7 +14065,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13256,7 +14104,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13295,7 +14143,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13334,7 +14182,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13373,7 +14221,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13412,7 +14260,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13451,7 +14299,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13490,7 +14338,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13529,7 +14377,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13568,7 +14416,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13607,7 +14455,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13646,7 +14494,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13685,7 +14533,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13724,7 +14572,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13763,7 +14611,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13802,7 +14650,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13841,7 +14689,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13880,7 +14728,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -13919,7 +14767,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -13958,7 +14806,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -13997,7 +14845,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14036,7 +14884,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14075,7 +14923,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14114,7 +14962,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14153,7 +15001,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14192,7 +15040,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14231,7 +15079,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14270,7 +15118,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14309,7 +15157,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14348,7 +15196,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14387,7 +15235,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14426,7 +15274,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14465,7 +15313,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14504,7 +15352,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14543,7 +15391,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14582,7 +15430,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14621,7 +15469,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14660,7 +15508,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14699,7 +15547,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14738,7 +15586,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14777,7 +15625,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14816,7 +15664,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14855,7 +15703,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14894,7 +15742,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -14933,7 +15781,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14972,7 +15820,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15011,7 +15859,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15050,7 +15898,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15089,7 +15937,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15128,7 +15976,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15167,7 +16015,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15206,7 +16054,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15245,7 +16093,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15284,7 +16132,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15323,7 +16171,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15362,7 +16210,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15401,7 +16249,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15440,7 +16288,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15479,7 +16327,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15518,7 +16366,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15557,7 +16405,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15596,7 +16444,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15635,7 +16483,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15674,7 +16522,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15713,7 +16561,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15752,7 +16600,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15791,7 +16639,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15830,7 +16678,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15869,7 +16717,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15908,7 +16756,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15947,7 +16795,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15986,7 +16834,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16025,7 +16873,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16064,7 +16912,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16103,7 +16951,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16142,7 +16990,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16181,7 +17029,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16220,7 +17068,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16259,7 +17107,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16298,7 +17146,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16337,7 +17185,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16376,7 +17224,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16415,7 +17263,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16454,7 +17302,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16493,7 +17341,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16528,11 +17376,13 @@
         <v>-545612.090601326</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>191.3</v>
+      </c>
       <c r="J471" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16567,11 +17417,13 @@
         <v>-541631.976301326</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>191.3</v>
+      </c>
       <c r="J472" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16606,11 +17458,13 @@
         <v>-541626.277901326</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>192</v>
+      </c>
       <c r="J473" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16645,11 +17499,13 @@
         <v>-541042.480133857</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>193.3</v>
+      </c>
       <c r="J474" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16684,11 +17540,13 @@
         <v>-541042.480133857</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>195.2</v>
+      </c>
       <c r="J475" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16727,7 +17585,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16766,7 +17624,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16805,7 +17663,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16844,7 +17702,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16879,11 +17737,13 @@
         <v>-550431.1747663879</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>193.1</v>
+      </c>
       <c r="J480" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16918,11 +17778,13 @@
         <v>-551519.2613663879</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>192.3</v>
+      </c>
       <c r="J481" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16961,7 +17823,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17000,7 +17862,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17039,7 +17901,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17078,7 +17940,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17117,7 +17979,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17156,7 +18018,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17195,7 +18057,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17234,7 +18096,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17273,7 +18135,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17312,7 +18174,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17351,7 +18213,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17390,7 +18252,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17429,7 +18291,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17468,7 +18330,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17507,7 +18369,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17546,7 +18408,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17585,7 +18447,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17624,7 +18486,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17663,7 +18525,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17698,11 +18560,13 @@
         <v>-544868.4237789209</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>192.2</v>
+      </c>
       <c r="J501" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17741,7 +18605,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17780,7 +18644,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17815,11 +18679,13 @@
         <v>-545067.9376789209</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>192.8</v>
+      </c>
       <c r="J504" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17854,13 +18720,11 @@
         <v>-545028.6084789209</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>192.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17895,13 +18759,11 @@
         <v>-545028.6084789209</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>192.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17942,7 +18804,7 @@
         <v>192.9</v>
       </c>
       <c r="J507" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17983,7 +18845,7 @@
         <v>193</v>
       </c>
       <c r="J508" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18024,7 +18886,7 @@
         <v>193.1</v>
       </c>
       <c r="J509" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18065,7 +18927,7 @@
         <v>193.9</v>
       </c>
       <c r="J510" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18100,11 +18962,13 @@
         <v>-543236.0731789208</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>194.8</v>
+      </c>
       <c r="J511" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18139,11 +19003,13 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>195.3</v>
+      </c>
       <c r="J512" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18178,11 +19044,13 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>196.3</v>
+      </c>
       <c r="J513" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -18217,11 +19085,13 @@
         <v>-543007.6919789208</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>196.3</v>
+      </c>
       <c r="J514" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -18256,11 +19126,13 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>196.3</v>
+      </c>
       <c r="J515" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -18295,11 +19167,13 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>196.4</v>
+      </c>
       <c r="J516" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18334,11 +19208,13 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>196.4</v>
+      </c>
       <c r="J517" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18373,11 +19249,13 @@
         <v>-543004.6919789208</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>196.4</v>
+      </c>
       <c r="J518" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18412,11 +19290,13 @@
         <v>-543001.6919789208</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>196.4</v>
+      </c>
       <c r="J519" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18451,11 +19331,13 @@
         <v>-543001.6919789208</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>196.5</v>
+      </c>
       <c r="J520" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18490,11 +19372,13 @@
         <v>-543022.0316789208</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>196.5</v>
+      </c>
       <c r="J521" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18529,11 +19413,13 @@
         <v>-543022.0316789208</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>196.3</v>
+      </c>
       <c r="J522" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18568,11 +19454,13 @@
         <v>-543110.1182789209</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>196.3</v>
+      </c>
       <c r="J523" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18607,11 +19495,13 @@
         <v>-543107.1182789209</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>196</v>
+      </c>
       <c r="J524" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18646,11 +19536,13 @@
         <v>-543107.1182789209</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>196.4</v>
+      </c>
       <c r="J525" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18685,11 +19577,13 @@
         <v>-543123.9493789208</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>196.4</v>
+      </c>
       <c r="J526" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18724,11 +19618,13 @@
         <v>-543866.2777789208</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>195.2</v>
+      </c>
       <c r="J527" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18769,7 +19665,7 @@
         <v>194.1</v>
       </c>
       <c r="J528" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18810,7 +19706,7 @@
         <v>195.2</v>
       </c>
       <c r="J529" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18851,7 +19747,7 @@
         <v>193</v>
       </c>
       <c r="J530" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18892,7 +19788,7 @@
         <v>195.1</v>
       </c>
       <c r="J531" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18933,7 +19829,7 @@
         <v>193.5</v>
       </c>
       <c r="J532" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18974,7 +19870,7 @@
         <v>195.1</v>
       </c>
       <c r="J533" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19015,7 +19911,7 @@
         <v>195.1</v>
       </c>
       <c r="J534" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19056,7 +19952,7 @@
         <v>193.1</v>
       </c>
       <c r="J535" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -19097,7 +19993,7 @@
         <v>195.1</v>
       </c>
       <c r="J536" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -19138,7 +20034,7 @@
         <v>193</v>
       </c>
       <c r="J537" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -19179,7 +20075,7 @@
         <v>193</v>
       </c>
       <c r="J538" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -19220,7 +20116,7 @@
         <v>195.1</v>
       </c>
       <c r="J539" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -19261,7 +20157,7 @@
         <v>193</v>
       </c>
       <c r="J540" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -19302,7 +20198,7 @@
         <v>192.1</v>
       </c>
       <c r="J541" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19343,7 +20239,7 @@
         <v>191.5</v>
       </c>
       <c r="J542" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19384,7 +20280,7 @@
         <v>191.4</v>
       </c>
       <c r="J543" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19425,7 +20321,7 @@
         <v>191.5</v>
       </c>
       <c r="J544" t="n">
-        <v>193.7</v>
+        <v>190.6</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
